--- a/api-list.xlsx
+++ b/api-list.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282CE0B8-E827-431D-978E-DAD678298A32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Api List" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Local" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Development" state="visible" r:id="rId6"/>
+    <sheet name="Api List" sheetId="1" r:id="rId1"/>
+    <sheet name="Local" sheetId="2" r:id="rId2"/>
+    <sheet name="Development" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -33,49 +34,61 @@
     <t>Output</t>
   </si>
   <si>
-    <t>/rest/view/users</t>
-  </si>
-  <si>
-    <t>{"status":"OK","data":[{"name":"Fulan","age":23,"email":"fulan@fulan.com"}]}</t>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>/rest/console/vacancy/klobberexportjson</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"startDate": "2019-01-01", "endDate": "2019-02-28"}</t>
+  </si>
+  <si>
+    <t>{"success":true,"data":[{"firstName":"dummy","lastName":"dummy","userId":"dummy","gender":"M","dateOfBirth":"1990-01-01","age":"20","location":"Jakarta","link":"https://klob.id/dummy","valuePrestasi":"1","valuePeduliSesama":"2","valueTanggungJawab":"1","interestAnalitis":"1","interestKreatif":"1","interestKompetitif":"1"},{"firstName":"dummy","lastName":"dummy","userId":"dummy","gender":"M","dateOfBirth":"1990-01-01","age":"20","location":"Jakarta","link":"https://klob.id/dummy","valuePrestasi":"1","valuePeduliSesama":"2","valueTanggungJawab":"1","interestAnalitis":"1","interestKreatif":"1","interestKompetitif":"1"}]}</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>/rest/console/vacancy/seekerexportjson</t>
   </si>
   <si>
-    <t>{"success":true,"data":[{"firstName":"dummy","lastName":"dummy","userId":"dummy","gender":"M","dateOfBirth":"1990-01-01","age":"20","location":"Jakarta","link":"https://klob.id/dummy","valuePrestasi":"1","valuePeduliSesama":"2","valueTanggungJawab":"1","interestAnalitis":"1","interestKreatif":"1","interestKompetitif":"1"},{"firstName":"dummy","lastName":"dummy","userId":"dummy","gender":"M","dateOfBirth":"1990-01-01","age":"20","location":"Jakarta","link":"https://klob.id/dummy","valuePrestasi":"1","valuePeduliSesama":"2","valueTanggungJawab":"1","interestAnalitis":"1","interestKreatif":"1","interestKompetitif":"1"}]}</t>
-  </si>
-  <si>
     <t>host</t>
   </si>
   <si>
-    <t>https://klobid.free.beeceptor.com</t>
+    <t>https://testapi.io/api/amatmiftakhudin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <sz val="10"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -415,20 +431,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,80 +458,101 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/api-list.xlsx
+++ b/api-list.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282CE0B8-E827-431D-978E-DAD678298A32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Api List" sheetId="1" r:id="rId1"/>
-    <sheet name="Local" sheetId="2" r:id="rId2"/>
-    <sheet name="Development" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" name="Api List" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Local" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Development" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -67,28 +66,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFC7254E"/>
+      <family val="3"/>
       <sz val="10"/>
-      <color rgb="FFC7254E"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -431,14 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -471,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,6 +482,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -501,6 +503,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -510,19 +515,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -534,21 +539,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
